--- a/pred_ohlcv/54_21/2019-11-01 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 SNT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>124972.3776368421</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>124972.3776368421</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>203768.109636842</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-995310.1520631579</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1116663.554563158</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1084285.345436843</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1063285.345436843</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1066455.345436843</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1000610.656436843</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1003755.310524893</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>539858.850724893</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>566428.3136248931</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>705873.7492248931</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>688320.458124893</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>706120.583824893</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>606939.721424893</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>605835.187124893</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>626835.187124893</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>626835.187124893</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 SNT ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>203768.109636842</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-995310.1520631579</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1116663.554563158</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>535820.2061368425</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>512080.0769368425</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1084285.345436843</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1063285.345436843</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1066455.345436843</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1000610.656436843</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1003755.310524893</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>688320.458124893</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>706120.583824893</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
